--- a/biology/Zoologie/Grand_nègre_berbère/Grand_nègre_berbère.xlsx
+++ b/biology/Zoologie/Grand_nègre_berbère/Grand_nègre_berbère.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Grand_n%C3%A8gre_berb%C3%A8re</t>
+          <t>Grand_nègre_berbère</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Berberia abdelkader
 Le Grand nègre berbère (Berberia abdelkader) est une espèce de lépidoptères (papillons) appartenant à la famille des Nymphalidae, à la sous-famille des Satyrinae et au genre Berberia.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Grand_n%C3%A8gre_berb%C3%A8re</t>
+          <t>Grand_nègre_berbère</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,16 +524,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle a été nommée Berberia abdelkader par Alexandre Pierret en 1837.
-Synonyme : Satyrus Abd-el-Kader Pierret, 1837[1];
-Sous-espèces
-Berberia abdelkader abdelkader dans l'est du Maroc, en Algérie et dans l'ouest de la Libye.
-Berberia abdelkader nelvai (Seitz, 1911) dans l'est de l'Algérie et l'ouest de la Tunisie.
-Berberia abdelkader taghzefti (Wyatt, 1952) dans le Haut-Atlas marocain[1].
-Noms vernaculaires
-Le Grand nègre berbère se nomme Giant Grayling en anglais[1].
+Synonyme : Satyrus Abd-el-Kader Pierret, 1837;
 </t>
         </is>
       </c>
@@ -532,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Grand_n%C3%A8gre_berb%C3%A8re</t>
+          <t>Grand_nègre_berbère</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,10 +555,87 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Berberia abdelkader abdelkader dans l'est du Maroc, en Algérie et dans l'ouest de la Libye.
+Berberia abdelkader nelvai (Seitz, 1911) dans l'est de l'Algérie et l'ouest de la Tunisie.
+Berberia abdelkader taghzefti (Wyatt, 1952) dans le Haut-Atlas marocain.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Grand_nègre_berbère</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grand_n%C3%A8gre_berb%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Grand nègre berbère se nomme Giant Grayling en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Grand_nègre_berbère</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grand_n%C3%A8gre_berb%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Grand nègre berbère est de couleur marron plus ou moins foncé. L'aile antérieure porte en e5 à l'apex un gros ocelle pupillé de bleu entouré de crème ocré, un autre ocelle en e2 et des points postdiscaux bleus parfois très réduits en e3, e4 et e6. Les postérieures portent de même un ou deux discrets ocelles et des points postdiscaux bleus parfois très réduits.
 Le revers des antérieures est semblable, celui des postérieures comporte deux bandes blanches qui limitent une bande posdiscale marron et surtout chez la femelle des nervures blanches très nettes.
@@ -558,71 +643,183 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Grand_n%C3%A8gre_berb%C3%A8re</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Grand_n%C3%A8gre_berb%C3%A8re</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Grand_nègre_berbère</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grand_n%C3%A8gre_berb%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Le Grand nègre berbère vole en une génération entre juin et novembre suivant l'altitude[2].
-Plantes hôtes
-La plante hôte de sa chenille est Stipa tenacissima[1],[2].
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Grand nègre berbère vole en une génération entre juin et novembre suivant l'altitude.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Grand_n%C3%A8gre_berb%C3%A8re</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Grand_n%C3%A8gre_berb%C3%A8re</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Grand_nègre_berbère</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grand_n%C3%A8gre_berb%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante hôte de sa chenille est Stipa tenacissima,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Grand_nègre_berbère</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grand_n%C3%A8gre_berb%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Grand nègre berbère est présent en Afrique du Nord, au Maroc dans le Haut-Atlas et le Moyen-Atlas, en Algérie en Tunisie et dans l'ouest de la Libye[2],[1].
-Biotope
-Il réside sur les pentes rocheuses.
-Protection
-Il est considéré comme vulnérable au Maroc.
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Grand nègre berbère est présent en Afrique du Nord, au Maroc dans le Haut-Atlas et le Moyen-Atlas, en Algérie en Tunisie et dans l'ouest de la Libye,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Grand_nègre_berbère</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grand_n%C3%A8gre_berb%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside sur les pentes rocheuses.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Grand_nègre_berbère</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grand_n%C3%A8gre_berb%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est considéré comme vulnérable au Maroc.
 </t>
         </is>
       </c>
